--- a/src/assets/plantilla/Libro1.xlsx
+++ b/src/assets/plantilla/Libro1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos Realizados En Empresas\BIOS\TopTec\Frontend\PREDICCION-DE-FALLAS-TOPTEC\src\assets\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A86A1B3-71AD-43A9-A4A0-9C3E39BF3F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096913B-7D32-43FD-BC32-6739B923775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDF0BA2B-7D58-4EBC-8082-6AACA0EEF35C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Lote</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>2</t>
+  </si>
+  <si>
+    <t>Adsds08</t>
   </si>
 </sst>
 </file>
@@ -713,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE944EB6-C852-4A58-AEFB-BDCCCA7EDB9A}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,6 +980,134 @@
         <v>75</v>
       </c>
     </row>
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="8">
+        <v>44928</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="D3" s="10">
+        <v>5608</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="11">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13">
+        <v>558</v>
+      </c>
+      <c r="J3" s="13">
+        <v>2</v>
+      </c>
+      <c r="K3" s="13">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13">
+        <v>5</v>
+      </c>
+      <c r="M3" s="13">
+        <v>40</v>
+      </c>
+      <c r="N3" s="13">
+        <v>2</v>
+      </c>
+      <c r="O3" s="13">
+        <v>0</v>
+      </c>
+      <c r="P3" s="14">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="14">
+        <v>1</v>
+      </c>
+      <c r="R3" s="14">
+        <v>4</v>
+      </c>
+      <c r="S3" s="14">
+        <v>54</v>
+      </c>
+      <c r="T3" s="14">
+        <v>5</v>
+      </c>
+      <c r="U3" s="15">
+        <v>4</v>
+      </c>
+      <c r="V3" s="13">
+        <v>4</v>
+      </c>
+      <c r="W3" s="13">
+        <v>7</v>
+      </c>
+      <c r="X3" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AA3" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AB3" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD3" s="16">
+        <v>20.203832999999999</v>
+      </c>
+      <c r="AE3" s="17">
+        <v>4.0095560422058503</v>
+      </c>
+      <c r="AF3" s="17">
+        <v>4</v>
+      </c>
+      <c r="AG3" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AI3" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AJ3" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AK3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AL3" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AM3" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AN3" s="19">
+        <v>4</v>
+      </c>
+      <c r="AO3" s="18">
+        <v>0.52987267384916747</v>
+      </c>
+      <c r="AP3" s="20">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/plantilla/Libro1.xlsx
+++ b/src/assets/plantilla/Libro1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos Realizados En Empresas\BIOS\TopTec\Frontend\PREDICCION-DE-FALLAS-TOPTEC\src\assets\plantilla\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C096913B-7D32-43FD-BC32-6739B923775B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{577F87A1-2DA0-4763-9A87-B8084D974EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DDF0BA2B-7D58-4EBC-8082-6AACA0EEF35C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{DDF0BA2B-7D58-4EBC-8082-6AACA0EEF35C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
   <si>
     <t>Lote</t>
   </si>
@@ -177,6 +177,15 @@
   </si>
   <si>
     <t>Adsds08</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Adsds02</t>
+  </si>
+  <si>
+    <t>Adsds04</t>
   </si>
 </sst>
 </file>
@@ -716,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE944EB6-C852-4A58-AEFB-BDCCCA7EDB9A}">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AP5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,7 +991,7 @@
     </row>
     <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B3" s="8">
         <v>44928</v>
@@ -1105,6 +1114,262 @@
         <v>0.52987267384916747</v>
       </c>
       <c r="AP3" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="8">
+        <v>44928</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="D4" s="10">
+        <v>5608</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="11">
+        <v>1</v>
+      </c>
+      <c r="I4" s="13">
+        <v>558</v>
+      </c>
+      <c r="J4" s="13">
+        <v>2</v>
+      </c>
+      <c r="K4" s="13">
+        <v>5</v>
+      </c>
+      <c r="L4" s="13">
+        <v>5</v>
+      </c>
+      <c r="M4" s="13">
+        <v>40</v>
+      </c>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>37</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>1</v>
+      </c>
+      <c r="R4" s="14">
+        <v>4</v>
+      </c>
+      <c r="S4" s="14">
+        <v>54</v>
+      </c>
+      <c r="T4" s="14">
+        <v>5</v>
+      </c>
+      <c r="U4" s="15">
+        <v>4</v>
+      </c>
+      <c r="V4" s="13">
+        <v>4</v>
+      </c>
+      <c r="W4" s="13">
+        <v>7</v>
+      </c>
+      <c r="X4" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y4" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AA4" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AB4" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC4" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="16">
+        <v>20.203832999999999</v>
+      </c>
+      <c r="AE4" s="17">
+        <v>4.0095560422058503</v>
+      </c>
+      <c r="AF4" s="17">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH4" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AI4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AJ4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AK4" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AL4" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AM4" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AN4" s="19">
+        <v>4</v>
+      </c>
+      <c r="AO4" s="18">
+        <v>0.52987267384916747</v>
+      </c>
+      <c r="AP4" s="20">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="8">
+        <v>44928</v>
+      </c>
+      <c r="C5" s="9">
+        <v>0.9375</v>
+      </c>
+      <c r="D5" s="10">
+        <v>5608</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="11">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <v>558</v>
+      </c>
+      <c r="J5" s="13">
+        <v>2</v>
+      </c>
+      <c r="K5" s="13">
+        <v>5</v>
+      </c>
+      <c r="L5" s="13">
+        <v>5</v>
+      </c>
+      <c r="M5" s="13">
+        <v>40</v>
+      </c>
+      <c r="N5" s="13">
+        <v>2</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="14">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="14">
+        <v>4</v>
+      </c>
+      <c r="S5" s="14">
+        <v>54</v>
+      </c>
+      <c r="T5" s="14">
+        <v>5</v>
+      </c>
+      <c r="U5" s="15">
+        <v>4</v>
+      </c>
+      <c r="V5" s="13">
+        <v>4</v>
+      </c>
+      <c r="W5" s="13">
+        <v>7</v>
+      </c>
+      <c r="X5" s="13">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>12.2</v>
+      </c>
+      <c r="AA5" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="AB5" s="13">
+        <v>5</v>
+      </c>
+      <c r="AC5" s="13">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="16">
+        <v>20.203832999999999</v>
+      </c>
+      <c r="AE5" s="17">
+        <v>4.0095560422058503</v>
+      </c>
+      <c r="AF5" s="17">
+        <v>4</v>
+      </c>
+      <c r="AG5" s="18">
+        <v>4</v>
+      </c>
+      <c r="AH5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AI5" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AJ5" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AK5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AL5" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="AM5" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="AN5" s="19">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="18">
+        <v>0.52987267384916747</v>
+      </c>
+      <c r="AP5" s="20">
         <v>75</v>
       </c>
     </row>
